--- a/data/source/industries/motor_vehicles_equipment.xlsx
+++ b/data/source/industries/motor_vehicles_equipment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\coding_projects\bls_data\data\output\05_motor vehicles and equipment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\coding_projects\bls_data\data\source\industries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5F9614-6BA1-4164-A4CD-84923337BFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85A32D7-9101-4FA3-A31A-6134BFDFE78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30000" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve"> Year</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>n/a</t>
-  </si>
-  <si>
-    <t>40 8</t>
   </si>
 </sst>
 </file>
@@ -387,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,6 +487,9 @@
       <c r="D3">
         <v>537.5</v>
       </c>
+      <c r="E3">
+        <v>111.38</v>
+      </c>
       <c r="F3">
         <v>2.71</v>
       </c>
@@ -504,6 +504,15 @@
       </c>
       <c r="J3">
         <v>1.8</v>
+      </c>
+      <c r="K3">
+        <v>6.7</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -520,7 +529,7 @@
         <v>563.29999999999995</v>
       </c>
       <c r="E4">
-        <v>111.38</v>
+        <v>115.21</v>
       </c>
       <c r="F4">
         <v>2.81</v>
@@ -537,34 +546,55 @@
       <c r="J4">
         <v>1.4</v>
       </c>
+      <c r="K4">
+        <v>5.5</v>
+      </c>
       <c r="L4">
-        <v>8</v>
+        <v>0.6</v>
       </c>
       <c r="M4">
-        <v>5.0999999999999996</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1961</v>
       </c>
+      <c r="B5">
+        <v>632.29999999999995</v>
+      </c>
       <c r="C5">
         <v>60.2</v>
       </c>
+      <c r="D5">
+        <v>479.1</v>
+      </c>
+      <c r="E5">
+        <v>114.69</v>
+      </c>
       <c r="F5">
         <v>2.86</v>
       </c>
+      <c r="G5">
+        <v>40.1</v>
+      </c>
       <c r="H5">
         <v>2.6</v>
       </c>
+      <c r="I5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J5">
+        <v>0.9</v>
+      </c>
       <c r="K5">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
       <c r="L5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -572,51 +602,81 @@
         <v>1962</v>
       </c>
       <c r="B6">
-        <v>632.29999999999995</v>
+        <v>691.7</v>
       </c>
       <c r="C6">
         <v>63.6</v>
       </c>
       <c r="D6">
-        <v>479.1</v>
+        <v>534</v>
       </c>
       <c r="E6">
-        <v>115.21</v>
+        <v>127.67</v>
+      </c>
+      <c r="F6">
+        <v>2.99</v>
       </c>
       <c r="G6">
-        <v>40.1</v>
+        <v>42.7</v>
+      </c>
+      <c r="H6">
+        <v>4.2</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="K6">
-        <v>5.5</v>
+        <v>5.2</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>3.4</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1963</v>
       </c>
+      <c r="B7">
+        <v>741.3</v>
+      </c>
       <c r="C7">
         <v>68.2</v>
       </c>
       <c r="D7">
-        <v>534</v>
+        <v>573.6</v>
+      </c>
+      <c r="E7">
+        <v>132.68</v>
       </c>
       <c r="F7">
-        <v>2.99</v>
+        <v>3.1</v>
       </c>
       <c r="G7">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="H7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J7">
+        <v>1.4</v>
+      </c>
+      <c r="K7">
         <v>4.2</v>
       </c>
-      <c r="I7">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="J7">
-        <v>1.5</v>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>2.4</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -624,57 +684,81 @@
         <v>1964</v>
       </c>
       <c r="B8">
-        <v>691.7</v>
+        <v>752.9</v>
       </c>
       <c r="C8">
         <v>67.400000000000006</v>
       </c>
       <c r="D8">
-        <v>573.6</v>
+        <v>579.20000000000005</v>
+      </c>
+      <c r="E8">
+        <v>138.03</v>
+      </c>
+      <c r="F8">
+        <v>3.21</v>
       </c>
       <c r="G8">
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>4.4000000000000004</v>
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>4.0999999999999996</v>
       </c>
       <c r="J8">
-        <v>1.4</v>
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>4.0999999999999996</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="M8">
-        <v>4.5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1965</v>
       </c>
+      <c r="B9">
+        <v>842.7</v>
+      </c>
       <c r="C9">
         <v>69.599999999999994</v>
       </c>
       <c r="D9">
-        <v>579.20000000000005</v>
+        <v>658.9</v>
       </c>
       <c r="E9">
-        <v>114.69</v>
+        <v>147.63</v>
       </c>
       <c r="F9">
-        <v>3.1</v>
+        <v>3.34</v>
       </c>
       <c r="G9">
-        <v>43</v>
+        <v>44.2</v>
+      </c>
+      <c r="H9">
+        <v>6.2</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K9">
-        <v>5.8</v>
+        <v>4.7</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.7</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -682,57 +766,81 @@
         <v>1966</v>
       </c>
       <c r="B10">
-        <v>741.3</v>
+        <v>861.6</v>
       </c>
       <c r="C10">
         <v>73.7</v>
       </c>
       <c r="D10">
-        <v>658.9</v>
+        <v>670.3</v>
       </c>
       <c r="E10">
-        <v>127.67</v>
+        <v>147.22999999999999</v>
+      </c>
+      <c r="F10">
+        <v>3.44</v>
       </c>
       <c r="G10">
-        <v>44.2</v>
+        <v>42.8</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I10">
+        <v>5.5</v>
       </c>
       <c r="J10">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K10">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="M10">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1967</v>
       </c>
+      <c r="B11">
+        <v>815.8</v>
+      </c>
       <c r="C11">
         <v>72</v>
       </c>
       <c r="D11">
-        <v>670.3</v>
+        <v>626.9</v>
+      </c>
+      <c r="E11">
+        <v>144.84</v>
       </c>
       <c r="F11">
-        <v>3.21</v>
+        <v>3.55</v>
       </c>
       <c r="G11">
-        <v>42.8</v>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="H11">
+        <v>3.4</v>
       </c>
       <c r="I11">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="J11">
-        <v>2.5</v>
+        <v>2.1</v>
+      </c>
+      <c r="K11">
+        <v>5.5</v>
+      </c>
+      <c r="L11">
+        <v>1.3</v>
+      </c>
+      <c r="M11">
+        <v>3.3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -740,34 +848,40 @@
         <v>1968</v>
       </c>
       <c r="B12">
-        <v>752.9</v>
+        <v>873.7</v>
       </c>
       <c r="C12">
         <v>71.400000000000006</v>
       </c>
       <c r="D12">
-        <v>626.9</v>
+        <v>680.8</v>
       </c>
       <c r="E12">
-        <v>132.68</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
+        <v>168.09</v>
+      </c>
+      <c r="F12">
+        <v>3.9</v>
+      </c>
+      <c r="G12">
+        <v>43.1</v>
       </c>
       <c r="H12">
-        <v>6.2</v>
+        <v>5.8</v>
+      </c>
+      <c r="I12">
+        <v>4.9000000000000004</v>
       </c>
       <c r="J12">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="K12">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="M12">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -775,60 +889,81 @@
         <v>1969</v>
       </c>
       <c r="B13">
-        <v>842.7</v>
+        <v>911.4</v>
       </c>
       <c r="C13">
         <v>76.5</v>
       </c>
       <c r="D13">
-        <v>680.8</v>
+        <v>708</v>
+      </c>
+      <c r="E13">
+        <v>170.56</v>
       </c>
       <c r="F13">
-        <v>3.34</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G13">
-        <v>43.1</v>
+        <v>41.6</v>
+      </c>
+      <c r="H13">
+        <v>4.2</v>
       </c>
       <c r="I13">
-        <v>4.0999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="J13">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K13">
-        <v>4.0999999999999996</v>
+        <v>5.7</v>
+      </c>
+      <c r="L13">
+        <v>1.6</v>
+      </c>
+      <c r="M13">
+        <v>2.9</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1970</v>
       </c>
+      <c r="B14">
+        <v>797.3</v>
+      </c>
       <c r="C14">
         <v>70.7</v>
       </c>
       <c r="D14">
-        <v>708</v>
+        <v>604.20000000000005</v>
       </c>
       <c r="E14">
-        <v>138.03</v>
+        <v>170.07</v>
+      </c>
+      <c r="F14">
+        <v>4.22</v>
       </c>
       <c r="G14">
-        <v>41.6</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="H14">
-        <v>4.9000000000000004</v>
+        <v>3.2</v>
+      </c>
+      <c r="I14">
+        <v>4.4000000000000004</v>
       </c>
       <c r="J14">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K14">
-        <v>4.7</v>
+        <v>6.1</v>
       </c>
       <c r="L14">
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M14">
-        <v>2.2000000000000002</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -836,48 +971,81 @@
         <v>1971</v>
       </c>
       <c r="B15">
-        <v>861.6</v>
+        <v>842.6</v>
       </c>
       <c r="C15">
         <v>72.599999999999994</v>
       </c>
       <c r="D15">
-        <v>604.20000000000005</v>
+        <v>651.29999999999995</v>
+      </c>
+      <c r="E15">
+        <v>194.46</v>
       </c>
       <c r="F15">
-        <v>3.44</v>
+        <v>4.72</v>
       </c>
       <c r="G15">
-        <v>40.299999999999997</v>
+        <v>41.2</v>
+      </c>
+      <c r="H15">
+        <v>3.7</v>
       </c>
       <c r="I15">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="J15">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="K15">
-        <v>5.7</v>
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <v>2.4</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1972</v>
       </c>
+      <c r="B16">
+        <v>849.3</v>
+      </c>
+      <c r="C16">
+        <v>75.7</v>
+      </c>
+      <c r="D16">
+        <v>668.6</v>
+      </c>
       <c r="E16">
-        <v>147.63</v>
+        <v>220.16</v>
+      </c>
+      <c r="F16">
+        <v>5.12</v>
       </c>
       <c r="G16">
-        <v>41.2</v>
+        <v>43</v>
       </c>
       <c r="H16">
-        <v>3.4</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I16">
+        <v>3.6</v>
+      </c>
+      <c r="J16">
+        <v>1.9</v>
+      </c>
+      <c r="K16">
+        <v>3.8</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -885,283 +1053,80 @@
         <v>1973</v>
       </c>
       <c r="B17">
-        <v>815.8</v>
+        <v>955.3</v>
       </c>
       <c r="C17">
-        <v>75.7</v>
+        <v>92.6</v>
+      </c>
+      <c r="D17">
+        <v>743.4</v>
+      </c>
+      <c r="E17">
+        <v>237.51</v>
       </c>
       <c r="F17">
-        <v>3.55</v>
+        <v>5.46</v>
       </c>
       <c r="G17">
-        <v>43</v>
+        <v>43.5</v>
+      </c>
+      <c r="H17">
+        <v>5.9</v>
       </c>
       <c r="I17">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="J17">
+        <v>2.4</v>
+      </c>
+      <c r="K17">
+        <v>3.5</v>
+      </c>
+      <c r="L17">
+        <v>1.3</v>
+      </c>
+      <c r="M17">
         <v>1.2</v>
-      </c>
-      <c r="K17">
-        <v>5.5</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1974</v>
       </c>
+      <c r="B18">
+        <v>890.8</v>
+      </c>
+      <c r="C18">
+        <v>87.4</v>
+      </c>
       <c r="D18">
-        <v>651.29999999999995</v>
+        <v>682.3</v>
       </c>
       <c r="E18">
-        <v>147.22999999999999</v>
+        <v>239.54</v>
+      </c>
+      <c r="F18">
+        <v>5.9</v>
+      </c>
+      <c r="G18">
+        <v>40.6</v>
       </c>
       <c r="H18">
-        <v>5.8</v>
+        <v>3.4</v>
       </c>
       <c r="I18">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="J18">
-        <v>1.9</v>
+        <v>1.5</v>
+      </c>
+      <c r="K18">
+        <v>6.1</v>
       </c>
       <c r="L18">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M18">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>873.7</v>
-      </c>
-      <c r="C19">
-        <v>92.6</v>
-      </c>
-      <c r="F19">
-        <v>3.9</v>
-      </c>
-      <c r="G19">
-        <v>43.5</v>
-      </c>
-      <c r="J19">
-        <v>2.4</v>
-      </c>
-      <c r="K19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D20">
-        <v>668.6</v>
-      </c>
-      <c r="E20">
-        <v>144.84</v>
-      </c>
-      <c r="F20">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H20">
-        <v>4.2</v>
-      </c>
-      <c r="I20">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J20">
-        <v>1.5</v>
-      </c>
-      <c r="L20">
-        <v>1.3</v>
-      </c>
-      <c r="M20">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>911.4</v>
-      </c>
-      <c r="C21">
-        <v>87.4</v>
-      </c>
-      <c r="G21">
-        <v>40.6</v>
-      </c>
-      <c r="K21">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <v>743.4</v>
-      </c>
-      <c r="E22">
-        <v>168.09</v>
-      </c>
-      <c r="F22">
-        <v>4.22</v>
-      </c>
-      <c r="H22">
-        <v>3.2</v>
-      </c>
-      <c r="I22">
-        <v>4.7</v>
-      </c>
-      <c r="K22">
-        <v>6.1</v>
-      </c>
-      <c r="L22">
-        <v>1.3</v>
-      </c>
-      <c r="M22">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>797.3</v>
-      </c>
-      <c r="D23">
-        <v>682.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E24">
-        <v>170.56</v>
-      </c>
-      <c r="I24">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="L24">
-        <v>1.6</v>
-      </c>
-      <c r="M24">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F25">
-        <v>4.72</v>
-      </c>
-      <c r="H25">
-        <v>3.7</v>
-      </c>
-      <c r="K25">
-        <v>4</v>
-      </c>
-      <c r="L25">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>842.6</v>
-      </c>
-      <c r="E26">
-        <v>170.07</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F27">
-        <v>5.12</v>
-      </c>
-      <c r="H27">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I27">
-        <v>3.3</v>
-      </c>
-      <c r="K27">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>849.3</v>
-      </c>
-      <c r="H28">
-        <v>5.9</v>
-      </c>
-      <c r="L28">
-        <v>8</v>
-      </c>
-      <c r="M28">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>955.3</v>
-      </c>
-      <c r="E29">
-        <v>194.46</v>
-      </c>
-      <c r="F29">
-        <v>5.46</v>
-      </c>
-      <c r="I29">
-        <v>3.6</v>
-      </c>
-      <c r="K29">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E30">
-        <v>220.16</v>
-      </c>
-      <c r="F30">
-        <v>5.9</v>
-      </c>
-      <c r="H30">
-        <v>3.4</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>890.8</v>
-      </c>
-      <c r="I31">
-        <v>3.5</v>
-      </c>
-      <c r="K31">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E32">
-        <v>237.51</v>
-      </c>
-      <c r="L32">
-        <v>1.3</v>
-      </c>
-      <c r="M32">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="I33">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E34">
-        <v>239.54</v>
-      </c>
-      <c r="L34">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M34">
         <v>3.9</v>
       </c>
     </row>
